--- a/basedesign.xlsx
+++ b/basedesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lubos/Documents/Projects/screeps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEF6345-EF36-B74C-A297-03FB3FFBAC6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F15AA0-32F7-3546-94CD-E4539951DB68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="2340" windowWidth="27440" windowHeight="16560" xr2:uid="{1D64CEC5-90FC-5447-9D59-01EDF2F78035}"/>
+    <workbookView xWindow="4040" yWindow="3080" windowWidth="27440" windowHeight="16560" xr2:uid="{1D64CEC5-90FC-5447-9D59-01EDF2F78035}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -24,54 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Lubos Louzensky</author>
-  </authors>
-  <commentList>
-    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{32F72498-9BAC-3C4F-B3F1-586E5220DB30}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Lubos Louzensky:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Base Manager Creep</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="12">
   <si>
     <t>Screeps Base Design</t>
   </si>
@@ -97,14 +51,23 @@
     <t>L</t>
   </si>
   <si>
-    <t>BMC</t>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>https://screeps.arcath.net/building-planner/?share=N4IgdghgtgpiBcIQBoQGcAWEBOATB6WeADCiNgMYA2CAHKgEYCuAllbi2AOZoKhoAXAPbYIXOPFAAHIb3gBtUAA8EAJgDMqAJ5riAXwC6e1NiER8kkDLmKQK+KtXaEARgCcx5Ws0gd8d552agAszv4eyF4Oob66gfaOYar6kUEOTrEOLvEhSdmpCT5+qvlRJWEBBWoZfi60OVkVAOwNyRX1VdHtrQCsFRFlAGzdnap9mS4tozXVrS55rcRJqnNJ6otrrcOZGlvLvZujMcUro+PFpWmqx66DrU39rfQ7KWUPO5f27guddUmvaW+EwGgPeFwaLm2Jwh528EKhIQhYLUPQhz2KqN+6LUd1+biSwQh+J2UzKSx2HTK8x2IISM3g6gBhTCjNaNwZTJRSVpOKSlKuyIcpKu2IcuLKxIxDUZBOl1OK606Mp2pwlPzK9OurSKKLZSXFV1hQtamoNCXlamFCUFWtGorGep2hOm3MdxR5Dh1-kxGoqdyMqAEMGwUE4EBolmsCFs5u6AZAVE4AGs+FZZNGyka6oZjCAYEog2A0CwhGBU1GFJn-ntgTXipyxeqBdXRuTah62i9Vl3W02vpK4na+2oB+lpW24aMbYqyvbnW99kOVU9DmqdjOrqPbUNZVOkj7DbuyuyHWd9XXLfdz6MEWKLw4DwkjaeokDoXjV1cLdETfvu8UzV0JIrVcLdH1A68yUgr8-17HZwP8e1PlcG1VUBW9dixI9QU-L57Q3PDF1fG15yuCcf1+Z9SK+DCEMmaDCJJIk+TlbD7GVKVRi3QCHHtEChRY+M0CkCAAHcy0jdNKxg5cz1ksovUcHNAyEUTg3LKSY2qXDcnXbU2O8HSugmfjEhM5SEwgBgNJsBSWNGRTTM1Jz7OPYC3TUflmR2HixlcmTii8wyaQsoQGDQYMADd1Mk2yri9SYLJkNTsAAZRE8SbIzeK-QssAmCTGLpE0uyJnqeNRCgETsAELKFCMPQ9CAA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,23 +76,8 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +96,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -161,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -173,6 +127,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,11 +445,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794B8A53-C7D6-264E-8846-1732FF91EF00}">
-  <dimension ref="A1:AO27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794B8A53-C7D6-264E-8846-1732FF91EF00}">
+  <dimension ref="A1:BQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM9" sqref="AM9"/>
+    <sheetView tabSelected="1" topLeftCell="U3" workbookViewId="0">
+      <selection activeCell="AU20" sqref="AU20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,12 +461,12 @@
     <col min="28" max="16384" width="2.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -546,7 +503,7 @@
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -583,7 +540,7 @@
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -620,7 +577,7 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>0</v>
@@ -688,7 +645,7 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="F6" s="1"/>
       <c r="G6" s="1">
         <v>1</v>
@@ -744,8 +701,16 @@
         <v>2</v>
       </c>
       <c r="AN6" s="1"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AO6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR6" s="1"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
       <c r="G7" s="1">
         <v>2</v>
@@ -809,8 +774,20 @@
       <c r="AN7" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AO7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="F8" s="1"/>
       <c r="G8" s="1">
         <v>3</v>
@@ -883,8 +860,20 @@
       <c r="AO8" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <v>4</v>
@@ -952,8 +941,20 @@
       <c r="AN9" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AO9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <v>5</v>
@@ -1009,14 +1010,35 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
+      <c r="AK10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="AM10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AN10" s="1"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AN10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS10" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <v>6</v>
@@ -1034,8 +1056,8 @@
       <c r="L11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>8</v>
+      <c r="M11" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>3</v>
@@ -1073,11 +1095,29 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AL11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="F12" s="1"/>
       <c r="G12" s="1">
         <v>7</v>
@@ -1133,12 +1173,35 @@
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AK12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="F13" s="1"/>
       <c r="G13" s="1">
         <v>8</v>
@@ -1197,11 +1260,29 @@
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AL13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="F14" s="1"/>
       <c r="G14" s="1">
         <v>9</v>
@@ -1261,10 +1342,20 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
+      <c r="AM14" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="AN14" s="1"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AO14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR14" s="1"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="F15" s="1"/>
       <c r="G15" s="1">
         <v>10</v>
@@ -1323,7 +1414,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="F16" s="1"/>
       <c r="G16" s="1">
         <v>11</v>
@@ -1365,7 +1456,9 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
+      <c r="AC16" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
@@ -1378,7 +1471,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="6:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:69" x14ac:dyDescent="0.2">
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1">
@@ -1423,21 +1516,30 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
+      <c r="AB17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-    </row>
-    <row r="18" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="6:69" x14ac:dyDescent="0.2">
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1459,22 +1561,46 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
+      <c r="AA18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
-    </row>
-    <row r="19" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
+    </row>
+    <row r="19" spans="6:69" x14ac:dyDescent="0.2">
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1497,21 +1623,45 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
+      <c r="AB19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-    </row>
-    <row r="20" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+    </row>
+    <row r="20" spans="6:69" x14ac:dyDescent="0.2">
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1535,20 +1685,44 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
+      <c r="AC20" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
-    </row>
-    <row r="21" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="1"/>
+    </row>
+    <row r="21" spans="6:69" x14ac:dyDescent="0.2">
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1576,16 +1750,42 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-    </row>
-    <row r="22" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+      <c r="BD21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="1"/>
+    </row>
+    <row r="22" spans="6:69" x14ac:dyDescent="0.2">
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1613,16 +1813,46 @@
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-    </row>
-    <row r="23" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN22" s="1"/>
+      <c r="BO22" s="1"/>
+    </row>
+    <row r="23" spans="6:69" x14ac:dyDescent="0.2">
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1650,16 +1880,50 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
-    </row>
-    <row r="24" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO23" s="1"/>
+    </row>
+    <row r="24" spans="6:69" x14ac:dyDescent="0.2">
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1687,16 +1951,54 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-    </row>
-    <row r="25" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="6:69" x14ac:dyDescent="0.2">
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1724,16 +2026,59 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-    </row>
-    <row r="26" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="AZ25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="6:69" x14ac:dyDescent="0.2">
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1761,16 +2106,54 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
-    </row>
-    <row r="27" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="6:69" x14ac:dyDescent="0.2">
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1798,17 +2181,240 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO27" s="1"/>
+    </row>
+    <row r="28" spans="6:69" x14ac:dyDescent="0.2">
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN28" s="1"/>
+      <c r="BO28" s="1"/>
+    </row>
+    <row r="29" spans="6:69" x14ac:dyDescent="0.2">
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+      <c r="BD29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM29" s="1"/>
+      <c r="BN29" s="1"/>
+      <c r="BO29" s="1"/>
+    </row>
+    <row r="30" spans="6:69" x14ac:dyDescent="0.2">
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BK30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+    </row>
+    <row r="31" spans="6:69" x14ac:dyDescent="0.2">
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+    </row>
+    <row r="32" spans="6:69" x14ac:dyDescent="0.2">
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="BG32" s="1"/>
+      <c r="BH32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN32" s="1"/>
+      <c r="BO32" s="1"/>
+      <c r="BQ32" s="1"/>
+    </row>
+    <row r="33" spans="33:69" x14ac:dyDescent="0.2">
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="BN33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+    </row>
+    <row r="34" spans="33:69" x14ac:dyDescent="0.2">
+      <c r="AY34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/basedesign.xlsx
+++ b/basedesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lubos/Documents/Projects/screeps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F15AA0-32F7-3546-94CD-E4539951DB68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E8DE71-30F2-2747-BF68-A48D8828B9F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4040" yWindow="3080" windowWidth="27440" windowHeight="16560" xr2:uid="{1D64CEC5-90FC-5447-9D59-01EDF2F78035}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="22">
   <si>
     <t>Screeps Base Design</t>
   </si>
@@ -61,6 +61,36 @@
   </si>
   <si>
     <t>https://screeps.arcath.net/building-planner/?share=N4IgdghgtgpiBcIQBoQGcAWEBOATB6WeADCiNgMYA2CAHKgEYCuAllbi2AOZoKhoAXAPbYIXOPFAAHIb3gBtUAA8EAJgDMqAJ5riAXwC6e1NiER8kkDLmKQK+KtXaEARgCcx5Ws0gd8d552agAszv4eyF4Oob66gfaOYar6kUEOTrEOLvEhSdmpCT5+qvlRJWEBBWoZfi60OVkVAOwNyRX1VdHtrQCsFRFlAGzdnap9mS4tozXVrS55rcRJqnNJ6otrrcOZGlvLvZujMcUro+PFpWmqx66DrU39rfQ7KWUPO5f27guddUmvaW+EwGgPeFwaLm2Jwh528EKhIQhYLUPQhz2KqN+6LUd1+biSwQh+J2UzKSx2HTK8x2IISM3g6gBhTCjNaNwZTJRSVpOKSlKuyIcpKu2IcuLKxIxDUZBOl1OK606Mp2pwlPzK9OurSKKLZSXFV1hQtamoNCXlamFCUFWtGorGep2hOm3MdxR5Dh1-kxGoqdyMqAEMGwUE4EBolmsCFs5u6AZAVE4AGs+FZZNGyka6oZjCAYEog2A0CwhGBU1GFJn-ntgTXipyxeqBdXRuTah62i9Vl3W02vpK4na+2oB+lpW24aMbYqyvbnW99kOVU9DmqdjOrqPbUNZVOkj7DbuyuyHWd9XXLfdz6MEWKLw4DwkjaeokDoXjV1cLdETfvu8UzV0JIrVcLdH1A68yUgr8-17HZwP8e1PlcG1VUBW9dixI9QU-L57Q3PDF1fG15yuCcf1+Z9SK+DCEMmaDCJJIk+TlbD7GVKVRi3QCHHtEChRY+M0CkCAAHcy0jdNKxg5cz1ksovUcHNAyEUTg3LKSY2qXDcnXbU2O8HSugmfjEhM5SEwgBgNJsBSWNGRTTM1Jz7OPYC3TUflmR2HixlcmTii8wyaQsoQGDQYMADd1Mk2yri9SYLJkNTsAAZRE8SbIzeK-QssAmCTGLpE0uyJnqeNRCgETsAELKFCMPQ9CAA</t>
+  </si>
+  <si>
+    <t>Tw</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Má</t>
+  </si>
+  <si>
+    <t>Je</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>pS</t>
+  </si>
+  <si>
+    <t>Nu</t>
+  </si>
+  <si>
+    <t>Tall</t>
+  </si>
+  <si>
+    <t>Wide</t>
   </si>
 </sst>
 </file>
@@ -446,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794B8A53-C7D6-264E-8846-1732FF91EF00}">
-  <dimension ref="A1:BQ34"/>
+  <dimension ref="A1:BQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U3" workbookViewId="0">
-      <selection activeCell="AU20" sqref="AU20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AF27" sqref="AF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,7 +488,9 @@
     <col min="25" max="25" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="2.83203125" style="2"/>
     <col min="27" max="27" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="2.83203125" style="2"/>
+    <col min="28" max="33" width="2.83203125" style="2"/>
+    <col min="34" max="36" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="2.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.2">
@@ -2091,7 +2123,9 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+      <c r="R26" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -2166,21 +2200,51 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
+      <c r="R27" s="1">
+        <v>4</v>
+      </c>
       <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
+      <c r="T27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
+      <c r="AI27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
       <c r="BB27" s="1" t="s">
@@ -2225,6 +2289,51 @@
       <c r="BO27" s="1"/>
     </row>
     <row r="28" spans="6:69" x14ac:dyDescent="0.2">
+      <c r="R28" s="2">
+        <v>4</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>10</v>
+      </c>
+      <c r="AJ28" s="2">
+        <v>10</v>
+      </c>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
@@ -2265,6 +2374,52 @@
       <c r="BO28" s="1"/>
     </row>
     <row r="29" spans="6:69" x14ac:dyDescent="0.2">
+      <c r="R29" s="2">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ29" s="2">
+        <f>SUM(R27:R39)</f>
+        <v>60</v>
+      </c>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
@@ -2301,6 +2456,51 @@
       <c r="BO29" s="1"/>
     </row>
     <row r="30" spans="6:69" x14ac:dyDescent="0.2">
+      <c r="R30" s="2">
+        <v>6</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>6</v>
+      </c>
+      <c r="AJ30" s="2">
+        <v>6</v>
+      </c>
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
@@ -2333,6 +2533,42 @@
       <c r="BO30" s="1"/>
     </row>
     <row r="31" spans="6:69" x14ac:dyDescent="0.2">
+      <c r="R31" s="2">
+        <v>6</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
@@ -2362,6 +2598,42 @@
       <c r="BP31" s="1"/>
     </row>
     <row r="32" spans="6:69" x14ac:dyDescent="0.2">
+      <c r="R32" s="2">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
@@ -2386,7 +2658,43 @@
       <c r="BO32" s="1"/>
       <c r="BQ32" s="1"/>
     </row>
-    <row r="33" spans="33:69" x14ac:dyDescent="0.2">
+    <row r="33" spans="18:69" x14ac:dyDescent="0.2">
+      <c r="R33" s="2">
+        <v>2</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
@@ -2407,12 +2715,248 @@
       <c r="BP33" s="1"/>
       <c r="BQ33" s="1"/>
     </row>
-    <row r="34" spans="33:69" x14ac:dyDescent="0.2">
+    <row r="34" spans="18:69" x14ac:dyDescent="0.2">
+      <c r="R34" s="2">
+        <v>4</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="AY34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="BO34" s="1"/>
       <c r="BP34" s="1"/>
+    </row>
+    <row r="35" spans="18:69" x14ac:dyDescent="0.2">
+      <c r="R35" s="2">
+        <v>2</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="18:69" x14ac:dyDescent="0.2">
+      <c r="R36" s="2">
+        <v>4</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD36" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="18:69" x14ac:dyDescent="0.2">
+      <c r="R37" s="2">
+        <v>6</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="18:69" x14ac:dyDescent="0.2">
+      <c r="R38" s="2">
+        <v>9</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="18:69" x14ac:dyDescent="0.2">
+      <c r="R39" s="2">
+        <v>5</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC39" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="18:69" x14ac:dyDescent="0.2">
+      <c r="AH42" s="2">
+        <v>13</v>
+      </c>
+      <c r="AI42" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="18:69" x14ac:dyDescent="0.2">
+      <c r="AH43" s="2">
+        <v>11</v>
+      </c>
+      <c r="AI43" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
